--- a/22/9.xlsx
+++ b/22/9.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pluttan/Downloads/files (9)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amd\PycharmProjects\infegerep\22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB4E37E-F264-A94E-B1E0-E1776F23A130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Задание" sheetId="2" r:id="rId1"/>
@@ -26,52 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t>ID процесса B</t>
-  </si>
-  <si>
-    <t>Время выполнения процесса B (мс)</t>
-  </si>
-  <si>
-    <t>ID процесса (ов) A</t>
-  </si>
-  <si>
-    <t>13;15;18</t>
-  </si>
-  <si>
-    <t>6;11;17</t>
-  </si>
-  <si>
-    <t>11;13</t>
-  </si>
-  <si>
-    <t>6;17;18</t>
-  </si>
-  <si>
-    <t>4;15</t>
-  </si>
-  <si>
-    <t>3;6;12</t>
-  </si>
-  <si>
-    <t>12;13</t>
-  </si>
-  <si>
-    <t>13;15</t>
-  </si>
-  <si>
-    <t>3;11</t>
-  </si>
-  <si>
-    <t>11;15</t>
-  </si>
-  <si>
-    <t>4;17</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Типовой пример организации данных в файле:</t>
   </si>
@@ -88,8 +42,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,15 +61,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="20"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -126,16 +71,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -143,25 +141,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -170,12 +178,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Вывод" xfId="4" builtinId="21"/>
+    <cellStyle name="Нейтральный" xfId="3" builtinId="28"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="2" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -501,40 +522,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F4ECDC-A585-C94F-90FA-80B50B7B6148}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="151.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="151.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="216" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="81" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="157" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="189" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="25" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
+    <row r="1" spans="1:1" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="156.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="210" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -543,250 +564,649 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="62.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6">
+        <v>4</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8">
+        <f>VLOOKUP(C1,$A:$I,9,0)</f>
+        <v>48</v>
+      </c>
+      <c r="G1" s="8">
+        <f t="shared" ref="G1:H16" si="0">VLOOKUP(D1,$A:$I,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H1" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I1" s="9">
+        <f>B1+MAX(F1,G1,H1)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
+        <v>29</v>
+      </c>
+      <c r="C2" s="6">
+        <v>13</v>
+      </c>
+      <c r="D2" s="7">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7">
         <v>18</v>
       </c>
-      <c r="C2" s="3">
+      <c r="F2" s="8">
+        <f t="shared" ref="F2:F20" si="1">VLOOKUP(C2,$A:$I,9,0)</f>
+        <v>12</v>
+      </c>
+      <c r="G2" s="8">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="H2" s="8">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="I2" s="9">
+        <f t="shared" ref="I2:I20" si="2">B2+MAX(F2,G2,H2)</f>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B4" s="1">
+        <v>36</v>
+      </c>
+      <c r="C4" s="6">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>34</v>
+      </c>
+      <c r="C6" s="6">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>38</v>
+      </c>
+      <c r="C7" s="6">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="9">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="D9" s="7">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>37</v>
+      </c>
+      <c r="C10" s="6">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>22</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6">
+        <v>13</v>
+      </c>
+      <c r="D14" s="7">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7">
+        <v>13</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>90</v>
+      </c>
+      <c r="C16" s="10">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>31</v>
+      </c>
+      <c r="C17" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="D17" s="7">
+        <v>11</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="G17" s="8">
+        <f t="shared" ref="G17:G21" si="3">VLOOKUP(D17,$A:$I,9,0)</f>
+        <v>38</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" ref="H17:H21" si="4">VLOOKUP(E17,$A:$I,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>36</v>
+      </c>
+      <c r="C18" s="6">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7">
+        <v>15</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>36</v>
-      </c>
-      <c r="C5" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>34</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="D19" s="7">
+        <v>17</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="9">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="6">
+        <v>12</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>32</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>37</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>34</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>90</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>31</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>36</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3">
-        <v>12</v>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
